--- a/similarities/split_global/harmonic_similarity_timestamps_81.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_81.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,730 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:11.440000', '0:00:16.380000')]</t>
+          <t>('0:00:07.900000', '0:00:16.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=7.9</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_275</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Ab', 'Db', 'Ab']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:08.158789', '0:00:22.589990')]</t>
+          <t>('0:01:56.690000', '0:02:02.570000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-275#t=8.158789']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['D/5', 'A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
+          <t>['C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:13.480000')]</t>
+          <t>('0:00:01.710000', '0:00:05.544000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:12.823786', '0:00:20.068412')]</t>
+          <t>('0:00:13.336043', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=1.71</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=12.823786']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>jaah_49</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E:dim7', 'Bb:maj6/5', 'F:7', 'Bb:maj6']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['Gb:dim7', 'Eb:maj6', 'Bb:7', 'Eb:maj6']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.600000', '0:00:11.260000')]</t>
+          <t>('0:00:24.130000', '0:00:26.580000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:29.440000', '0:00:35.170000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=24.13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=29.44</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:maj6/5', 'F:7', 'Bb:maj6', 'G:7', 'C:min7']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Ab:maj6', 'Eb:7', 'Ab:maj6', 'F:7', 'Bb:min7']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:24.530000', '0:00:27.390000')]</t>
+          <t>('0:00:47.300000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:03.130000', '0:00:06.810000')]</t>
+          <t>('0:00:16.520000', '0:00:25.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-49#t=24.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=3.13']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=16.52</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_29</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:06.940000', '0:00:19.180000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
+          <t>('0:00:11.440000', '0:00:16.380000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=6.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=11.44</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>isophonics_9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj/F'], ['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C:7', 'F:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['B:7', 'E', 'G#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:27.280000', '0:01:32.660000'), ('0:00:37.960000', '0:00:44.800000')]</t>
+          <t>('0:00:41.512000', '0:00:46.124000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:36.120000', '0:01:43.440000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:00:29.455036', '0:00:31.869912')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=87.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-58#t=37.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=41.512</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=96.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=29.455036</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_102</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:7', 'E']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min/C', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:28.479798', '0:00:31.393902')]</t>
+          <t>('0:01:06.920000', '0:01:08.180000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:05.860000', '0:00:13.380000')]</t>
+          <t>('0:00:16.840000', '0:00:19.460000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=28.479798']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=66.92</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=5.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-102#t=16.84</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['G:7', 'C:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['Eb:7', 'Ab:maj', 'Eb/3']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:11.260000', '0:00:13.220000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:26.006000', '0:00:29.321000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.26</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min']]</t>
+          <t>['D:min', 'A', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:30.531803', '0:00:36.267131')]</t>
+          <t>('0:00:18.965464', '0:00:23.342426')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:07.640000', '0:00:15')]</t>
+          <t>('0:00:01.560000', '0:00:06.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=30.531803']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=7.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=1.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:06.300000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E:min', 'B:(3,5,b7,b9)', 'E:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:02.408196', '0:00:13.878853')]</t>
+          <t>('0:01:42.400000', '0:02:01.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=102.4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:43.140000', '0:01:00.240000')]</t>
+          <t>('0:04:13.840000', '0:04:19.880000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:05.980000')]</t>
+          <t>('0:00:17.560000', '0:00:40.120000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:48', '0:00:52.200000')]</t>
+          <t>('0:00:55.230000', '0:01:07.670000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=48.0']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=55.23</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>schubert-winterreise_49</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A:min', 'E:maj/G#', 'A:min', 'A:7/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+          <t>('0:00:13.480000', '0:00:24.640000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:56.720000', '0:00:58.880000')]</t>
+          <t>('0:00:10.760000', '0:00:17.360000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=13.48</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=56.72']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
